--- a/Healthcare/VRTX.xlsx
+++ b/Healthcare/VRTX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D651F6-C90B-AC44-9DAB-2B1E9943AB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5398E2D7-A32B-4E42-9356-CD0678B16D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1940,11 +1940,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>510.63499999999999</v>
-    <v>341.9</v>
-    <v>0.37859999999999999</v>
-    <v>-6.24</v>
-    <v>-1.2482999999999999E-2</v>
+    <v>519.88</v>
+    <v>342.64</v>
+    <v>0.3735</v>
+    <v>-18.260000000000002</v>
+    <v>-3.773E-2</v>
+    <v>11.8</v>
+    <v>2.5337999999999999E-2</v>
     <v>USD</v>
     <v>Vertex Pharmaceuticals Incorporated is a global biotechnology company. The Company is focused on investing in scientific innovation to create transformative medicines for people with serious diseases, with a focus on specialty markets. It has four approved medicines that treat the underlying cause of cystic fibrosis (CF), and one approved therapy that treats severe sickle cell disease (SCD) and transfusion dependent beta thalassemia (TDT). Its pipeline includes clinical-stage programs in CF, SCD, TDT, acute and neuropathic pain, APOL1-mediated kidney disease, type 1 diabetes, myotonic dystrophy type 1 and alpha-1 antitrypsin deficiency. Its marketed medicines are TRIKAFTA/KAFTRIO, SYMDEKO/SYMKEVI (tezacaftor/ivacaftor and ivacaftor), ORKAMBI (lumacaftor/ivacaftor) and KALYDECO (ivacaftor). It is developing non-autologous (allogeneic) fully differentiated, stem-cell derived islet cell therapies designed to replace insulin-producing islet cells that are destroyed in people with T1D.</v>
     <v>5400</v>
@@ -1952,24 +1954,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>50 Northern Avenue, BOSTON, MA, 02210 US</v>
-    <v>506.65</v>
+    <v>479.935</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>45602.933784385939</v>
+    <v>45612.037178506253</v>
     <v>0</v>
-    <v>485.29</v>
-    <v>127409570008</v>
+    <v>458.1</v>
+    <v>119931400000</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
-    <v>505.35</v>
+    <v>478.56</v>
     <v>0</v>
-    <v>499.88</v>
-    <v>493.64</v>
-    <v>258102200</v>
+    <v>483.96</v>
+    <v>465.7</v>
+    <v>477.5</v>
+    <v>257529300</v>
     <v>VRTX</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED (XNAS:VRTX)</v>
-    <v>190</v>
-    <v>1054466</v>
+    <v>2581391</v>
+    <v>1131262</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -2001,6 +2004,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2021,6 +2026,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2037,7 +2043,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2048,13 +2054,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2120,13 +2129,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2171,6 +2186,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2178,6 +2196,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2845,7 +2866,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2878,14 +2899,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>493.64</v>
+        <v>465.7</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>11.700759482780787</v>
+        <v>11.01399577555331</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2899,7 +2920,7 @@
       </c>
       <c r="G3" s="45" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
-        <v>254407119.8991634</v>
+        <v>253842421.73312595</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -2925,14 +2946,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.2482999999999999E-2</v>
+        <v>-3.773E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>31.07550488</v>
+        <v>29.251560975609756</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2973,14 +2994,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>127409570008</v>
+        <v>119931400000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>3.3749427140598656E-2</v>
+        <v>3.5853829772686717E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3007,7 +3028,7 @@
       </c>
       <c r="K5" s="47">
         <f ca="1">I5/G3</f>
-        <v>348.30928075034348</v>
+        <v>349.08413000804683</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
@@ -3022,7 +3043,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.37859999999999999</v>
+        <v>0.3735</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3055,7 +3076,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>-0.29440628646312395</v>
+        <v>-0.25040985611327715</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
